--- a/scripts/Monitoramento/outputs/Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/outputs/Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -117,7 +117,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
@@ -270,14 +270,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB879D1"/>
-        <bgColor rgb="FFB879D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006400"/>
-        <bgColor rgb="FF006400"/>
+        <fgColor rgb="00006400"/>
+        <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
     <fill>
@@ -300,8 +294,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF31869B"/>
-        <bgColor rgb="FF31869B"/>
+        <fgColor rgb="0031869b"/>
+        <bgColor rgb="0031869b"/>
       </patternFill>
     </fill>
     <fill>
@@ -326,24 +320,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6666"/>
         <bgColor rgb="FFFF6666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0031869b"/>
-        <bgColor rgb="0031869b"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -642,37 +618,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -681,7 +657,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>

--- a/scripts/Monitoramento/outputs/Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/outputs/Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -117,7 +117,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill/>
     </fill>
@@ -270,8 +270,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
+        <fgColor rgb="FFB879D1"/>
+        <bgColor rgb="FFB879D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
       </patternFill>
     </fill>
     <fill>
@@ -294,8 +300,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0031869b"/>
-        <bgColor rgb="0031869b"/>
+        <fgColor rgb="FF31869B"/>
+        <bgColor rgb="FF31869B"/>
       </patternFill>
     </fill>
     <fill>
@@ -320,6 +326,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6666"/>
         <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006400"/>
+        <bgColor rgb="00006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0031869b"/>
+        <bgColor rgb="0031869b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -618,37 +642,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -657,7 +681,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14279,9 +14303,9 @@
           <t>07/02/2025, 02/12/2025</t>
         </is>
       </c>
-      <c r="G5" s="52" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G5" s="53" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H5" s="41" t="n"/>
